--- a/artfynd/A 43915-2020.xlsx
+++ b/artfynd/A 43915-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66547127</v>
+        <v>66547158</v>
       </c>
       <c r="B2" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>562805.2387432347</v>
+        <v>562144.4764793564</v>
       </c>
       <c r="R2" t="n">
-        <v>7258156.400834555</v>
+        <v>7258988.830856852</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>25711</t>
+          <t>25738</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -790,17 +790,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66547158</v>
+        <v>66547160</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>562144.4764793564</v>
+        <v>562088.419778533</v>
       </c>
       <c r="R3" t="n">
-        <v>7258988.830856852</v>
+        <v>7259077.940540269</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>25738</t>
+          <t>25740</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66547122</v>
+        <v>66547168</v>
       </c>
       <c r="B4" t="n">
-        <v>78602</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6463</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>562775.1301437519</v>
+        <v>561751.3414778512</v>
       </c>
       <c r="R4" t="n">
-        <v>7258161.16509439</v>
+        <v>7259414.496708464</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>25707</t>
+          <t>25746</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1024,17 +1024,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66547121</v>
+        <v>66547167</v>
       </c>
       <c r="B5" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>562775.1301437519</v>
+        <v>561751.3414778512</v>
       </c>
       <c r="R5" t="n">
-        <v>7258161.16509439</v>
+        <v>7259414.496708464</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>25706</t>
+          <t>25745</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>66547160</v>
+        <v>66547163</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562088.419778533</v>
+        <v>561912.1658408142</v>
       </c>
       <c r="R6" t="n">
-        <v>7259077.940540269</v>
+        <v>7259275.598937756</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>25740</t>
+          <t>25742</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66547123</v>
+        <v>66547162</v>
       </c>
       <c r="B7" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,21 +1281,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>562793.902164868</v>
+        <v>562088.419778533</v>
       </c>
       <c r="R7" t="n">
-        <v>7258160.319784166</v>
+        <v>7259077.940540269</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>25708</t>
+          <t>25741</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1375,14 +1375,14 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66547168</v>
+        <v>66547154</v>
       </c>
       <c r="B8" t="n">
         <v>89410</v>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>561751.3414778512</v>
+        <v>562454.1469366929</v>
       </c>
       <c r="R8" t="n">
-        <v>7259414.496708464</v>
+        <v>7258710.779616855</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>25746</t>
+          <t>25734</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66547118</v>
+        <v>66547143</v>
       </c>
       <c r="B9" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,21 +1515,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>562754.6168096787</v>
+        <v>562417.7601684354</v>
       </c>
       <c r="R9" t="n">
-        <v>7258184.867720363</v>
+        <v>7258366.210956166</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>25703</t>
+          <t>25725</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1609,17 +1609,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66547167</v>
+        <v>66547147</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,21 +1632,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>561751.3414778512</v>
+        <v>562584.200770902</v>
       </c>
       <c r="R10" t="n">
-        <v>7259414.496708464</v>
+        <v>7258533.349038474</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>25745</t>
+          <t>25728</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66547143</v>
+        <v>66547142</v>
       </c>
       <c r="B11" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,25 +1745,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>25725</t>
+          <t>25724</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66547120</v>
+        <v>66547150</v>
       </c>
       <c r="B12" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,21 +1866,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>562730.9356458166</v>
+        <v>562574.1041323486</v>
       </c>
       <c r="R12" t="n">
-        <v>7258181.445193765</v>
+        <v>7258557.272964881</v>
       </c>
       <c r="S12" t="n">
         <v>50</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>25705</t>
+          <t>25730</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1960,17 +1960,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66547116</v>
+        <v>66547151</v>
       </c>
       <c r="B13" t="n">
-        <v>78602</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1979,20 +1979,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2007,10 +2007,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>562707.1594345934</v>
+        <v>562537.0888003155</v>
       </c>
       <c r="R13" t="n">
-        <v>7258163.035252823</v>
+        <v>7258553.982855501</v>
       </c>
       <c r="S13" t="n">
         <v>50</v>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>25701</t>
+          <t>25731</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2077,17 +2077,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66547163</v>
+        <v>66547148</v>
       </c>
       <c r="B14" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>561912.1658408142</v>
+        <v>562584.200770902</v>
       </c>
       <c r="R14" t="n">
-        <v>7259275.598937756</v>
+        <v>7258533.349038474</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>25742</t>
+          <t>25729</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66547147</v>
+        <v>66547127</v>
       </c>
       <c r="B15" t="n">
-        <v>89410</v>
+        <v>78570</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2217,21 +2217,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562584.200770902</v>
+        <v>562805.2387432347</v>
       </c>
       <c r="R15" t="n">
-        <v>7258533.349038474</v>
+        <v>7258156.400834555</v>
       </c>
       <c r="S15" t="n">
         <v>50</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>25728</t>
+          <t>25711</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2311,17 +2311,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66547119</v>
+        <v>66547122</v>
       </c>
       <c r="B16" t="n">
-        <v>78570</v>
+        <v>78602</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2330,25 +2330,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562730.9356458166</v>
+        <v>562775.1301437519</v>
       </c>
       <c r="R16" t="n">
-        <v>7258181.445193765</v>
+        <v>7258161.16509439</v>
       </c>
       <c r="S16" t="n">
         <v>50</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>25704</t>
+          <t>25707</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66547142</v>
+        <v>66547121</v>
       </c>
       <c r="B17" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2447,25 +2447,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562417.7601684354</v>
+        <v>562775.1301437519</v>
       </c>
       <c r="R17" t="n">
-        <v>7258366.210956166</v>
+        <v>7258161.16509439</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>25724</t>
+          <t>25706</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2545,17 +2545,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>66547111</v>
+        <v>66547123</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>89388</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,21 +2568,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>562696.0552201791</v>
+        <v>562793.902164868</v>
       </c>
       <c r="R18" t="n">
-        <v>7258156.136615084</v>
+        <v>7258160.319784166</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>25696</t>
+          <t>25708</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66547150</v>
+        <v>66547118</v>
       </c>
       <c r="B19" t="n">
-        <v>78570</v>
+        <v>89388</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2685,21 +2685,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562574.1041323486</v>
+        <v>562754.6168096787</v>
       </c>
       <c r="R19" t="n">
-        <v>7258557.272964881</v>
+        <v>7258184.867720363</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>25730</t>
+          <t>25703</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2779,17 +2779,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>66547131</v>
+        <v>66547120</v>
       </c>
       <c r="B20" t="n">
-        <v>89406</v>
+        <v>56395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2802,21 +2802,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2826,10 +2826,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562899.788839451</v>
+        <v>562730.9356458166</v>
       </c>
       <c r="R20" t="n">
-        <v>7258197.564322257</v>
+        <v>7258181.445193765</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>25715</t>
+          <t>25705</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66547133</v>
+        <v>66547116</v>
       </c>
       <c r="B21" t="n">
-        <v>89388</v>
+        <v>78602</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,25 +2915,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1108</v>
+        <v>6463</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2943,10 +2943,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562898.2345518222</v>
+        <v>562707.1594345934</v>
       </c>
       <c r="R21" t="n">
-        <v>7258211.683764683</v>
+        <v>7258163.035252823</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>25717</t>
+          <t>25701</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>66547129</v>
+        <v>66547119</v>
       </c>
       <c r="B22" t="n">
-        <v>77588</v>
+        <v>78570</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,21 +3036,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>864</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562838.3886897006</v>
+        <v>562730.9356458166</v>
       </c>
       <c r="R22" t="n">
-        <v>7258145.874523315</v>
+        <v>7258181.445193765</v>
       </c>
       <c r="S22" t="n">
         <v>50</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>25713</t>
+          <t>25704</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66547109</v>
+        <v>66547111</v>
       </c>
       <c r="B23" t="n">
-        <v>78570</v>
+        <v>89392</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3153,21 +3153,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3177,10 +3177,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562686.0845578607</v>
+        <v>562696.0552201791</v>
       </c>
       <c r="R23" t="n">
-        <v>7258154.673818389</v>
+        <v>7258156.136615084</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>25694</t>
+          <t>25696</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3254,10 +3254,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>66547112</v>
+        <v>66547131</v>
       </c>
       <c r="B24" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3270,21 +3270,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3294,10 +3294,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562696.0552201791</v>
+        <v>562899.788839451</v>
       </c>
       <c r="R24" t="n">
-        <v>7258156.136615084</v>
+        <v>7258197.564322257</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>25697</t>
+          <t>25715</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>66547132</v>
+        <v>66547133</v>
       </c>
       <c r="B25" t="n">
-        <v>78570</v>
+        <v>89388</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3387,21 +3387,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3411,10 +3411,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562899.788839451</v>
+        <v>562898.2345518222</v>
       </c>
       <c r="R25" t="n">
-        <v>7258197.564322257</v>
+        <v>7258211.683764683</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>25716</t>
+          <t>25717</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>66547151</v>
+        <v>66547129</v>
       </c>
       <c r="B26" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3504,21 +3504,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3528,10 +3528,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562537.0888003155</v>
+        <v>562838.3886897006</v>
       </c>
       <c r="R26" t="n">
-        <v>7258553.982855501</v>
+        <v>7258145.874523315</v>
       </c>
       <c r="S26" t="n">
         <v>50</v>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>25731</t>
+          <t>25713</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3598,17 +3598,17 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66547148</v>
+        <v>66547109</v>
       </c>
       <c r="B27" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3621,21 +3621,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3645,10 +3645,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562584.200770902</v>
+        <v>562686.0845578607</v>
       </c>
       <c r="R27" t="n">
-        <v>7258533.349038474</v>
+        <v>7258154.673818389</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>25729</t>
+          <t>25694</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3715,17 +3715,17 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>66547114</v>
+        <v>66547112</v>
       </c>
       <c r="B28" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3738,21 +3738,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>25699</t>
+          <t>25697</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66547136</v>
+        <v>66547132</v>
       </c>
       <c r="B29" t="n">
-        <v>89392</v>
+        <v>78570</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3855,21 +3855,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562895.2424844714</v>
+        <v>562899.788839451</v>
       </c>
       <c r="R29" t="n">
-        <v>7258234.513607419</v>
+        <v>7258197.564322257</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>25720</t>
+          <t>25716</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>66547110</v>
+        <v>66547114</v>
       </c>
       <c r="B30" t="n">
-        <v>78603</v>
+        <v>78570</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3968,25 +3968,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6464</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562686.0845578607</v>
+        <v>562696.0552201791</v>
       </c>
       <c r="R30" t="n">
-        <v>7258154.673818389</v>
+        <v>7258156.136615084</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>25695</t>
+          <t>25699</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>66547113</v>
+        <v>66547136</v>
       </c>
       <c r="B31" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4089,21 +4089,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4113,10 +4113,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562696.0552201791</v>
+        <v>562895.2424844714</v>
       </c>
       <c r="R31" t="n">
-        <v>7258156.136615084</v>
+        <v>7258234.513607419</v>
       </c>
       <c r="S31" t="n">
         <v>50</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>25698</t>
+          <t>25720</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>66547162</v>
+        <v>66547110</v>
       </c>
       <c r="B32" t="n">
-        <v>78570</v>
+        <v>78603</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4202,25 +4202,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2081</v>
+        <v>6464</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4230,10 +4230,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562088.419778533</v>
+        <v>562686.0845578607</v>
       </c>
       <c r="R32" t="n">
-        <v>7259077.940540269</v>
+        <v>7258154.673818389</v>
       </c>
       <c r="S32" t="n">
         <v>50</v>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>25741</t>
+          <t>25695</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4300,17 +4300,17 @@
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66547115</v>
+        <v>66547113</v>
       </c>
       <c r="B33" t="n">
-        <v>78569</v>
+        <v>89673</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4323,21 +4323,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4347,10 +4347,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562707.1594345934</v>
+        <v>562696.0552201791</v>
       </c>
       <c r="R33" t="n">
-        <v>7258163.035252823</v>
+        <v>7258156.136615084</v>
       </c>
       <c r="S33" t="n">
         <v>50</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>25700</t>
+          <t>25698</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66547117</v>
+        <v>66547115</v>
       </c>
       <c r="B34" t="n">
-        <v>89388</v>
+        <v>78569</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4440,21 +4440,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>562731.1322304357</v>
+        <v>562707.1594345934</v>
       </c>
       <c r="R34" t="n">
-        <v>7258172.291587085</v>
+        <v>7258163.035252823</v>
       </c>
       <c r="S34" t="n">
         <v>50</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>25702</t>
+          <t>25700</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4541,10 +4541,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>66547135</v>
+        <v>66547117</v>
       </c>
       <c r="B35" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4557,21 +4557,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4581,10 +4581,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>562888.1342710118</v>
+        <v>562731.1322304357</v>
       </c>
       <c r="R35" t="n">
-        <v>7258235.609328711</v>
+        <v>7258172.291587085</v>
       </c>
       <c r="S35" t="n">
         <v>50</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>25719</t>
+          <t>25702</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>66547128</v>
+        <v>66547135</v>
       </c>
       <c r="B36" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4674,21 +4674,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4698,10 +4698,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>562838.3886897006</v>
+        <v>562888.1342710118</v>
       </c>
       <c r="R36" t="n">
-        <v>7258145.874523315</v>
+        <v>7258235.609328711</v>
       </c>
       <c r="S36" t="n">
         <v>50</v>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>25712</t>
+          <t>25719</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>66547130</v>
+        <v>66547128</v>
       </c>
       <c r="B37" t="n">
-        <v>89392</v>
+        <v>78570</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4791,21 +4791,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4815,10 +4815,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>562851.4095434146</v>
+        <v>562838.3886897006</v>
       </c>
       <c r="R37" t="n">
-        <v>7258141.159420063</v>
+        <v>7258145.874523315</v>
       </c>
       <c r="S37" t="n">
         <v>50</v>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>25714</t>
+          <t>25712</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>66547134</v>
+        <v>66547130</v>
       </c>
       <c r="B38" t="n">
-        <v>89388</v>
+        <v>89392</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4908,21 +4908,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4932,10 +4932,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>562888.1342710118</v>
+        <v>562851.4095434146</v>
       </c>
       <c r="R38" t="n">
-        <v>7258235.609328711</v>
+        <v>7258141.159420063</v>
       </c>
       <c r="S38" t="n">
         <v>50</v>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>25718</t>
+          <t>25714</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5009,10 +5009,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>66547125</v>
+        <v>66547134</v>
       </c>
       <c r="B39" t="n">
-        <v>78570</v>
+        <v>89388</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5025,21 +5025,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5049,10 +5049,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>562793.902164868</v>
+        <v>562888.1342710118</v>
       </c>
       <c r="R39" t="n">
-        <v>7258160.319784166</v>
+        <v>7258235.609328711</v>
       </c>
       <c r="S39" t="n">
         <v>50</v>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>25709</t>
+          <t>25718</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>66547126</v>
+        <v>66547125</v>
       </c>
       <c r="B40" t="n">
-        <v>89406</v>
+        <v>78570</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5142,21 +5142,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1204</v>
+        <v>2081</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5166,10 +5166,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>562805.2387432347</v>
+        <v>562793.902164868</v>
       </c>
       <c r="R40" t="n">
-        <v>7258156.400834555</v>
+        <v>7258160.319784166</v>
       </c>
       <c r="S40" t="n">
         <v>50</v>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>25710</t>
+          <t>25709</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>66547138</v>
+        <v>66547126</v>
       </c>
       <c r="B41" t="n">
-        <v>89673</v>
+        <v>89406</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5259,21 +5259,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5283,10 +5283,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>562895.2424844714</v>
+        <v>562805.2387432347</v>
       </c>
       <c r="R41" t="n">
-        <v>7258234.513607419</v>
+        <v>7258156.400834555</v>
       </c>
       <c r="S41" t="n">
         <v>50</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>25721</t>
+          <t>25710</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5360,10 +5360,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>66547154</v>
+        <v>66547138</v>
       </c>
       <c r="B42" t="n">
-        <v>89410</v>
+        <v>89673</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5376,21 +5376,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5400,10 +5400,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>562454.1469366929</v>
+        <v>562895.2424844714</v>
       </c>
       <c r="R42" t="n">
-        <v>7258710.779616855</v>
+        <v>7258234.513607419</v>
       </c>
       <c r="S42" t="n">
         <v>50</v>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>25734</t>
+          <t>25721</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
